--- a/tests/reports/template_two_frames.xlsx
+++ b/tests/reports/template_two_frames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/DEV/xlwings-reports/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Dev\xlwings\tests\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2C471-9450-2346-826D-0DA31D854D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90ED0AF-4657-47D7-9458-CCFF958A81F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5140" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{51FFD0F8-9605-C74A-8277-2C408E477F28}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" xr2:uid="{51FFD0F8-9605-C74A-8277-2C408E477F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felix Zumstein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F649AF29-E84F-48B6-9293-5AFD2D7A5B3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>&lt;frame&gt;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D15261ED-161B-496D-A828-4B3D76033E43}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>&lt;frame&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>{{ df1 }}</t>
   </si>
@@ -42,9 +80,6 @@
   </si>
   <si>
     <t>{{ df2 }}</t>
-  </si>
-  <si>
-    <t>&lt;frame&gt;</t>
   </si>
   <si>
     <t>{{ text }}</t>
@@ -60,12 +95,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -429,217 +471,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F12CCB5-54BF-504B-BB0D-B80622A1FA36}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F12CCB5-54BF-504B-BB0D-B80622A1FA36}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="I14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>